--- a/TeduShop.WebAPI/Templates/OrderTemplate.xlsx
+++ b/TeduShop.WebAPI/Templates/OrderTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular 2\tedushop-webapi\TeduShop.WebAPI\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF25F733-B9CE-461F-A4B0-DDF7E6399AE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD5EE8-D29A-426A-845C-964A3566D0F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLUOrder" sheetId="1" r:id="rId1"/>
@@ -68,17 +68,17 @@
     <t>NGƯỜI BÁN HÀNG</t>
   </si>
   <si>
-    <t>Địa chỉ: Xuân La Tây Hồ Hà Nội
+    <t>Điện thoại:</t>
+  </si>
+  <si>
+    <t>SĐT: 0966 026 626</t>
+  </si>
+  <si>
+    <t>Địa chỉ: Đại học Văn Lang
 ĐT: 0966 036 626</t>
   </si>
   <si>
-    <t>Mặt hàng bán (Thời trang nam)</t>
-  </si>
-  <si>
-    <t>Điện thoại:</t>
-  </si>
-  <si>
-    <t>SĐT: 0966 026 626</t>
+    <t>Mặt hàng bán</t>
   </si>
 </sst>
 </file>
@@ -262,44 +262,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -324,22 +324,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
+      <xdr:colOff>866775</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1619251</xdr:colOff>
+      <xdr:colOff>1695450</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>828676</xdr:rowOff>
+      <xdr:rowOff>828675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Hình ảnh 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82DB8C89-9076-4A40-ACC6-CF66B8FC02D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -361,8 +361,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1181100" y="19050"/>
-          <a:ext cx="809626" cy="809626"/>
+          <a:off x="1238250" y="0"/>
+          <a:ext cx="828675" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -653,52 +653,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -903,10 +903,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="3">
         <f>SUM(C9:C23)</f>
         <v>0</v>
@@ -918,32 +918,37 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
@@ -951,11 +956,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
   </mergeCells>
   <pageMargins left="0.55069444444444449" right="0.2361111111111111" top="0.47222222222222221" bottom="0.35416666666666669" header="0.31458333333333333" footer="0.27500000000000002"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" r:id="rId1"/>
